--- a/biology/Zoologie/Carnotaurinae/Carnotaurinae.xlsx
+++ b/biology/Zoologie/Carnotaurinae/Carnotaurinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carnotaurinae est une sous-famille de dinosaures théropodes de la famille des Abelisauridae. Elle inclut les dinosaures Aucasaurus (Argentine), Carnotaurus (Argentine), Majungasaurus (Madagascar), et Rajasaurus (Inde).
-Ce groupe a été proposé en premier par le paléontologue Paul Sereno en 1998, défini comme un clade, il contient tous les abelisauridés plus proches de Carnotaurus que de Abelisaurus[1].
+Ce groupe a été proposé en premier par le paléontologue Paul Sereno en 1998, défini comme un clade, il contient tous les abelisauridés plus proches de Carnotaurus que de Abelisaurus.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-famille Carnotaurinae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sous-famille Carnotaurinae
 Indosaurus (Inde)
 Indosuchus (Inde)
 Lametasaurus (Inde)
@@ -522,14 +536,48 @@
 Rajasaurus (Inde)
 Rahiolisaurus (Inde)
 Brachyrostra
-Ekrixinatosaurus (Argentine)[2]
-Ilokelesia (Argentine)[2]
-Skorpiovenator (Argentine)[2]
+Ekrixinatosaurus (Argentine)
+Ilokelesia (Argentine)
+Skorpiovenator (Argentine)
 Tribu Carnotaurini
 Aucasaurus (Argentine)
-Carnotaurus (Argentine)
-Phylogénie
-En 2008, Canale et al. publient une analyse phylogénétique se focalisant sur les carnotaurinés sud-américains. Dans leurs résultats, ils trouvent que toutes les formes sud-américaines (Ilokolesia incluse) sont regroupées dans un sous-clade de Carnotaurinae, qu'ils ont nommé Brachyrostra qui signifie "museau court". Ils ont défini ce clade comme incluant "Tous les abelisauridés plus étroitement liés avec Carnotaurus sastrei qu'avec Majungasaurus crenatissimus."[2]
+Carnotaurus (Argentine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carnotaurinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carnotaurinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, Canale et al. publient une analyse phylogénétique se focalisant sur les carnotaurinés sud-américains. Dans leurs résultats, ils trouvent que toutes les formes sud-américaines (Ilokolesia incluse) sont regroupées dans un sous-clade de Carnotaurinae, qu'ils ont nommé Brachyrostra qui signifie "museau court". Ils ont défini ce clade comme incluant "Tous les abelisauridés plus étroitement liés avec Carnotaurus sastrei qu'avec Majungasaurus crenatissimus."
 </t>
         </is>
       </c>
